--- a/Modèle-audit-SEO(3).xlsx
+++ b/Modèle-audit-SEO(3).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <t>Catégorie</t>
   </si>
@@ -264,6 +264,21 @@
   </si>
   <si>
     <t>Ligne 38 et 216</t>
+  </si>
+  <si>
+    <t>Impossible de voir le bouton qui permet de remonter en haut de la page.</t>
+  </si>
+  <si>
+    <t>Le bouton permettant de remonter en haut de la page a la propriété 0 dans opacity.</t>
+  </si>
+  <si>
+    <t>Pour voir certains elements, il faut utiliser la bonne valeur d'opacity</t>
+  </si>
+  <si>
+    <t>Cahnger opacity : 0 à opacity : 1</t>
+  </si>
+  <si>
+    <t>CSS ligne 519</t>
   </si>
 </sst>
 </file>
@@ -597,8 +612,8 @@
   <dimension ref="A1:AA1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -963,13 +978,28 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1">
-      <c r="B16" s="6"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+    <row r="16" spans="1:27" ht="31.5" customHeight="1">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="6"/>

--- a/Modèle-audit-SEO(3).xlsx
+++ b/Modèle-audit-SEO(3).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>Catégorie</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Ligne 5 + Ligne 48 à 50</t>
   </si>
   <si>
-    <t>Nous avons une balise &lt;li&gt;&lt;/li&gt; en trop dansnotre code HTML</t>
-  </si>
-  <si>
     <t>Pour une raison non connu lors de la création du fichier html il y a une balise li qui ne contient rien</t>
   </si>
   <si>
@@ -279,6 +276,41 @@
   </si>
   <si>
     <t>CSS ligne 519</t>
+  </si>
+  <si>
+    <t>On ne voit pas bien le chevron pour remonter en haut de la page au vue de sa couleur (Gris sur gris)</t>
+  </si>
+  <si>
+    <t>On utilise la même couleur que les titres pour le chevron</t>
+  </si>
+  <si>
+    <t>Utiliser des couleurs distinct entre le fond et le premier plan</t>
+  </si>
+  <si>
+    <t>.fa.fa-chevron-up{
+    color:white;
+}</t>
+  </si>
+  <si>
+    <t>CSS Ligne 657 à 659</t>
+  </si>
+  <si>
+    <t>Mauvaise langue utilisé pour les messages d'érreur dans les formulaires</t>
+  </si>
+  <si>
+    <t>Lors d'une mauvais saisie dans les formulaires, les messages d'erreur sont affiché en Anglais</t>
+  </si>
+  <si>
+    <t>Utiliser la même langue que le reste du site</t>
+  </si>
+  <si>
+    <t>success-msg="Votre message a été envoyé." fail-msg="Désolé, on dirait que notre serveur mail ne répond pas. Désolé pour la gêne occasionée."</t>
+  </si>
+  <si>
+    <t>Ligne 81 page Contact</t>
+  </si>
+  <si>
+    <t>Nous avons une balise &lt;li&gt;&lt;/li&gt; en trop dans notre code HTML</t>
   </si>
 </sst>
 </file>
@@ -612,8 +644,8 @@
   <dimension ref="A1:AA1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -694,7 +726,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>24</v>
@@ -711,7 +743,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
@@ -848,19 +880,19 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="64.5" customHeight="1">
@@ -868,22 +900,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="54" customHeight="1">
@@ -891,22 +923,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="48" customHeight="1">
@@ -917,19 +949,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="94.5" customHeight="1">
@@ -940,19 +972,19 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="31.5" customHeight="1">
@@ -963,19 +995,19 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="31.5" customHeight="1">
@@ -986,38 +1018,68 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="47.25" customHeight="1">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B17" s="6"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+    <row r="18" spans="1:7" ht="79.5" customHeight="1">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B18" s="6"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="6"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1025,19 +1087,19 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="31" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>

--- a/Modèle-audit-SEO(3).xlsx
+++ b/Modèle-audit-SEO(3).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="60" windowWidth="28380" windowHeight="12435" tabRatio="500"/>
+    <workbookView xWindow="90" yWindow="60" windowWidth="28665" windowHeight="12630" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="124">
   <si>
     <t>Catégorie</t>
   </si>
@@ -219,12 +219,6 @@
     <t>Augmenter la police pour une bonne lecture</t>
   </si>
   <si>
-    <t>changer la font-size de 16px à 20px</t>
-  </si>
-  <si>
-    <t>CSS ligne 328</t>
-  </si>
-  <si>
     <t xml:space="preserve">Le footer en version mobile n'est pas dirigé dans le bon sens </t>
   </si>
   <si>
@@ -292,9 +286,6 @@
 }</t>
   </si>
   <si>
-    <t>CSS Ligne 657 à 659</t>
-  </si>
-  <si>
     <t>Mauvaise langue utilisé pour les messages d'érreur dans les formulaires</t>
   </si>
   <si>
@@ -310,7 +301,123 @@
     <t>Ligne 81 page Contact</t>
   </si>
   <si>
-    <t>Nous avons une balise &lt;li&gt;&lt;/li&gt; en trop dans notre code HTML</t>
+    <t>Nous avons 2 balise &lt;li&gt;&lt;/li&gt; en trop dans notre code HTML</t>
+  </si>
+  <si>
+    <t>Une fois les balises &lt;li&gt; retirés, la mise en page de Accueil et Contact apparaissent un au dessus de l'autre</t>
+  </si>
+  <si>
+    <t>Apres la suppression des balises &lt;li&gt; en trop, on voit apparaitre un probleme de mise en page</t>
+  </si>
+  <si>
+    <t>Mettre tout ses element dans une seul balise &lt;li&gt;</t>
+  </si>
+  <si>
+    <t>ajout de :
+    display: flex;
+    flex-direction: row; 
+dans la balise nav &gt; li</t>
+  </si>
+  <si>
+    <t>CSS Ligne 329 et 330</t>
+  </si>
+  <si>
+    <t>Les images ne sont pas compressés</t>
+  </si>
+  <si>
+    <t>La page met plus de temps pour se charger au vu de la taille des images</t>
+  </si>
+  <si>
+    <t>Réduire au maximum la taille des images</t>
+  </si>
+  <si>
+    <t>Utiliser un logiciel pour avoir des images plus légère pour augmenter la vitesse de chargement</t>
+  </si>
+  <si>
+    <t>Appel des scripts en debut du fichier HTML</t>
+  </si>
+  <si>
+    <t>La page met du temps a charger car il y a execution des scripts au debut du fichier HTML</t>
+  </si>
+  <si>
+    <t>Faire charger en premier les elements les plus rapide permettant l'affichage de la page</t>
+  </si>
+  <si>
+    <t>Faire appel au scripts a la fin du fichier HTML</t>
+  </si>
+  <si>
+    <t>Lignes 250 à 254</t>
+  </si>
+  <si>
+    <t>CSS Lignes 657 à 659</t>
+  </si>
+  <si>
+    <t>Un seul Script a l'attribut Defer</t>
+  </si>
+  <si>
+    <t>Les autres scripts ne disposent pas de cet attribut</t>
+  </si>
+  <si>
+    <t>Pour gagner en vitesse de chargement, utiliser l'attribut Defer sur les scripts</t>
+  </si>
+  <si>
+    <t>Ajouter l'attribut Defer aux autres scripts</t>
+  </si>
+  <si>
+    <t>Pas de label pour les champs a remplir de la page contact</t>
+  </si>
+  <si>
+    <t>Lors de la lecture de l'écran via un lecteur de page les chaps de données ne sont pas identifiés</t>
+  </si>
+  <si>
+    <t>Utiliser l'attribut aria-label pour faire une description des formulaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aria-label="Entrez votre nom"
+aria-label="Entrez votre Adrese e-mail"
+aria-label="Comment nous avez-vous connu ?"
+aria-label="Brief de votre projet"
+</t>
+  </si>
+  <si>
+    <t>Contact Lignes 78, 84, 90 et 95</t>
+  </si>
+  <si>
+    <t>Liste de liens a la fin de la page</t>
+  </si>
+  <si>
+    <t>Peut etre considéré comme une pratique BlackhHat</t>
+  </si>
+  <si>
+    <t>Supprimer tous ces liens</t>
+  </si>
+  <si>
+    <t>Fin du Footer</t>
+  </si>
+  <si>
+    <t>Le contrast de couleur n'est pas assé prononcé pour les personnes mal voyante</t>
+  </si>
+  <si>
+    <t>Le contrast entre le blanc et l'orange utilisé pour les boutons et le texte est de 2,2:1</t>
+  </si>
+  <si>
+    <t>Utiliser des couleurs qui permettent une meilleur lisibilitée pour les personnes mal voyantes</t>
+  </si>
+  <si>
+    <t>Changement de la couleur de fond par une couleur plus foncé permet d'augmenter le contrast : #EB0000</t>
+  </si>
+  <si>
+    <t>CSS Lignes 780,788 et 806</t>
+  </si>
+  <si>
+    <t>Augmentation de font-size de 16px à 20px
+Augmentation de font-size de 11px à 15px</t>
+  </si>
+  <si>
+    <t>CSS Ligne 328 et 681</t>
+  </si>
+  <si>
+    <t>Ne pas faire une liste de lien. Avoir moins de liens mais des liens de quallité.</t>
   </si>
 </sst>
 </file>
@@ -641,11 +748,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA1004"/>
+  <dimension ref="A1:AA1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -743,7 +850,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
@@ -880,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>43</v>
@@ -895,30 +1002,30 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="64.5" customHeight="1">
+    <row r="11" spans="1:27" ht="83.25" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="54" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="64.5" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -926,45 +1033,45 @@
         <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="48" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="54" customHeight="1">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="94.5" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="48" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -972,22 +1079,22 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="31.5" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="94.5" customHeight="1">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -995,19 +1102,19 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="31.5" customHeight="1">
@@ -1015,84 +1122,229 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="47.25" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="79.5" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="47.25" customHeight="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="79.5" customHeight="1">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B19" s="6"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="48.75" customHeight="1">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="48" customHeight="1">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="47.25" customHeight="1">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="78.75" customHeight="1">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="48" customHeight="1">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="48.75" customHeight="1">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="27" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:7" ht="15.75" customHeight="1"/>
@@ -2072,6 +2324,7 @@
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Modèle-audit-SEO(3).xlsx
+++ b/Modèle-audit-SEO(3).xlsx
@@ -462,7 +462,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,6 +478,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -535,6 +541,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,7 +767,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -1186,26 +1201,26 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="79.5" customHeight="1">
-      <c r="A19" s="3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="14" t="s">
         <v>86</v>
       </c>
     </row>

--- a/Modèle-audit-SEO(3).xlsx
+++ b/Modèle-audit-SEO(3).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="125">
   <si>
     <t>Catégorie</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>Ne pas faire une liste de lien. Avoir moins de liens mais des liens de quallité.</t>
+  </si>
+  <si>
+    <t>Performances</t>
   </si>
 </sst>
 </file>
@@ -766,8 +769,8 @@
   <dimension ref="A1:AA1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -1086,7 +1089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="48" customHeight="1">
+    <row r="14" spans="1:27" ht="65.25" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1229,7 +1232,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>93</v>
@@ -1250,7 +1253,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>97</v>
@@ -1273,7 +1276,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>103</v>

--- a/Modèle-audit-SEO(3).xlsx
+++ b/Modèle-audit-SEO(3).xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$G$25</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -465,7 +468,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,12 +484,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,13 +542,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -769,19 +766,19 @@
   <dimension ref="A1:AA1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
     <col min="8" max="27" width="10.5546875" style="3" customWidth="1"/>
     <col min="28" max="16384" width="11.33203125" style="3"/>
   </cols>
@@ -2344,8 +2341,8 @@
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="70" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO(3).xlsx
+++ b/Modèle-audit-SEO(3).xlsx
@@ -766,8 +766,8 @@
   <dimension ref="A1:AA1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>

--- a/Modèle-audit-SEO(3).xlsx
+++ b/Modèle-audit-SEO(3).xlsx
@@ -766,8 +766,8 @@
   <dimension ref="A1:AA1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -948,50 +948,50 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:27" ht="49.5" customHeight="1">
+    <row r="8" spans="1:27" ht="48" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
+      <c r="B8" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="140.25" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="49.5" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="83.25" customHeight="1">
@@ -1017,76 +1017,76 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="83.25" customHeight="1">
+    <row r="11" spans="1:27" ht="64.5" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="64.5" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="48.75" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="54" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="140.25" customHeight="1">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="65.25" customHeight="1">
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="83.25" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1094,45 +1094,45 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="94.5" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="54" customHeight="1">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="31.5" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="65.25" customHeight="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1140,45 +1140,45 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="31.5" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="94.5" customHeight="1">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="47.25" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="31.5" customHeight="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1186,135 +1186,135 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A19" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="48.75" customHeight="1">
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="47.25" customHeight="1">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="48" customHeight="1">
+        <v>81</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="79.5" customHeight="1">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="47.25" customHeight="1">
+      <c r="B21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="48.75" customHeight="1">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="78.75" customHeight="1">
+      <c r="C22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="47.25" customHeight="1">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="48" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="78.75" customHeight="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1322,42 +1322,42 @@
         <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="48.75" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="48" customHeight="1">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1"/>
